--- a/FISHTRADER/data/ind_describe.xlsx
+++ b/FISHTRADER/data/ind_describe.xlsx
@@ -497,13 +497,13 @@
         <v>27.20186661404894</v>
       </c>
       <c r="I3">
-        <v>0.0008499892443588836</v>
+        <v>0.0008499892443588837</v>
       </c>
       <c r="J3">
         <v>32.63129079751381</v>
       </c>
       <c r="K3">
-        <v>10.19758512515902</v>
+        <v>10.19758512513333</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -523,13 +523,13 @@
         <v>3.462400035166323</v>
       </c>
       <c r="I4">
-        <v>0.00203328396088433</v>
+        <v>0.002033283960884331</v>
       </c>
       <c r="J4">
         <v>3.785326587406091</v>
       </c>
       <c r="K4">
-        <v>9.172523907680684</v>
+        <v>9.172523907672847</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -555,7 +555,7 @@
         <v>24.193988</v>
       </c>
       <c r="K5">
-        <v>-4.223592713</v>
+        <v>-4.22359271321824</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -569,7 +569,7 @@
         <v>0.3111330924732379</v>
       </c>
       <c r="G6">
-        <v>16.0852977955517</v>
+        <v>16.08529779555167</v>
       </c>
       <c r="H6">
         <v>25.7</v>
@@ -581,7 +581,7 @@
         <v>31.6843644</v>
       </c>
       <c r="K6">
-        <v>3.47967479375</v>
+        <v>3.479674793889353</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -592,10 +592,10 @@
         <v>7000</v>
       </c>
       <c r="D7">
-        <v>0.3317691277515972</v>
+        <v>0.3317691277515975</v>
       </c>
       <c r="G7">
-        <v>18.18578128966208</v>
+        <v>18.18578128966205</v>
       </c>
       <c r="H7">
         <v>26.12</v>
@@ -607,7 +607,7 @@
         <v>32.5093126</v>
       </c>
       <c r="K7">
-        <v>8.330858744499999</v>
+        <v>8.330858744538506</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -618,22 +618,22 @@
         <v>21000</v>
       </c>
       <c r="D8">
-        <v>0.3384769471359266</v>
+        <v>0.3384769471359265</v>
       </c>
       <c r="G8">
-        <v>23.47875702923562</v>
+        <v>23.47875702923563</v>
       </c>
       <c r="H8">
         <v>26.86</v>
       </c>
       <c r="I8">
-        <v>0.0009019466770374213</v>
+        <v>0.0009019466770374215</v>
       </c>
       <c r="J8">
         <v>33.9318818</v>
       </c>
       <c r="K8">
-        <v>11.68458839</v>
+        <v>11.6845883905486</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -644,16 +644,16 @@
         <v>41000</v>
       </c>
       <c r="D9">
-        <v>0.3686480051763542</v>
+        <v>0.368648005176354</v>
       </c>
       <c r="G9">
-        <v>33.00359271321824</v>
+        <v>33.0035927132182</v>
       </c>
       <c r="H9">
         <v>40.55</v>
       </c>
       <c r="I9">
-        <v>0.03750175438596492</v>
+        <v>0.0375017543859649</v>
       </c>
       <c r="J9">
         <v>40.5464518</v>
